--- a/in.xlsx
+++ b/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u01572007/IdeaProjects/timing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6B52A-C15E-6C4F-B9D6-433D07AE9FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61150962-8788-CB46-AC98-EFD95DD6C967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4111,17 +4111,17 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -39694,97 +39694,97 @@
       </c>
     </row>
     <row r="678" spans="1:19" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A678" s="12" t="s">
+      <c r="A678" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="B678" s="12"/>
-      <c r="C678" s="12" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D678" s="12" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E678" s="12"/>
-      <c r="F678" s="13">
+      <c r="B678" s="13"/>
+      <c r="C678" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D678" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E678" s="13"/>
+      <c r="F678" s="15">
         <v>120</v>
       </c>
-      <c r="G678" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H678" s="12" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I678" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J678" s="12"/>
-      <c r="K678" s="12" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L678" s="12" t="s">
+      <c r="G678" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H678" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I678" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J678" s="13"/>
+      <c r="K678" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L678" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="M678" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N678" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O678" s="15">
+      <c r="M678" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N678" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O678" s="14">
         <v>43636.449953703697</v>
       </c>
-      <c r="P678" s="14">
-        <v>999</v>
-      </c>
-      <c r="Q678" s="14"/>
-      <c r="R678" s="14">
-        <v>222</v>
-      </c>
-      <c r="S678" s="12" t="s">
+      <c r="P678" s="12">
+        <v>999</v>
+      </c>
+      <c r="Q678" s="12"/>
+      <c r="R678" s="12">
+        <v>222</v>
+      </c>
+      <c r="S678" s="13" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="679" spans="1:19" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A679" s="12"/>
-      <c r="B679" s="12"/>
-      <c r="C679" s="12"/>
-      <c r="D679" s="12"/>
-      <c r="E679" s="12"/>
-      <c r="F679" s="13"/>
-      <c r="G679" s="12"/>
-      <c r="H679" s="12"/>
-      <c r="I679" s="12"/>
-      <c r="J679" s="12"/>
-      <c r="K679" s="12"/>
-      <c r="L679" s="12"/>
-      <c r="M679" s="15"/>
-      <c r="N679" s="15"/>
-      <c r="O679" s="15"/>
-      <c r="P679" s="14"/>
-      <c r="Q679" s="14"/>
-      <c r="R679" s="14"/>
-      <c r="S679" s="12"/>
+      <c r="A679" s="13"/>
+      <c r="B679" s="13"/>
+      <c r="C679" s="13"/>
+      <c r="D679" s="13"/>
+      <c r="E679" s="13"/>
+      <c r="F679" s="15"/>
+      <c r="G679" s="13"/>
+      <c r="H679" s="13"/>
+      <c r="I679" s="13"/>
+      <c r="J679" s="13"/>
+      <c r="K679" s="13"/>
+      <c r="L679" s="13"/>
+      <c r="M679" s="14"/>
+      <c r="N679" s="14"/>
+      <c r="O679" s="14"/>
+      <c r="P679" s="12"/>
+      <c r="Q679" s="12"/>
+      <c r="R679" s="12"/>
+      <c r="S679" s="13"/>
     </row>
     <row r="680" spans="1:19" s="1" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A680" s="12"/>
-      <c r="B680" s="12"/>
-      <c r="C680" s="12"/>
-      <c r="D680" s="12"/>
-      <c r="E680" s="12"/>
-      <c r="F680" s="13"/>
-      <c r="G680" s="12"/>
-      <c r="H680" s="12"/>
-      <c r="I680" s="12"/>
-      <c r="J680" s="12"/>
-      <c r="K680" s="12"/>
-      <c r="L680" s="12"/>
-      <c r="M680" s="15"/>
-      <c r="N680" s="15"/>
-      <c r="O680" s="15"/>
-      <c r="P680" s="14"/>
-      <c r="Q680" s="14"/>
-      <c r="R680" s="14"/>
-      <c r="S680" s="12"/>
+      <c r="A680" s="13"/>
+      <c r="B680" s="13"/>
+      <c r="C680" s="13"/>
+      <c r="D680" s="13"/>
+      <c r="E680" s="13"/>
+      <c r="F680" s="15"/>
+      <c r="G680" s="13"/>
+      <c r="H680" s="13"/>
+      <c r="I680" s="13"/>
+      <c r="J680" s="13"/>
+      <c r="K680" s="13"/>
+      <c r="L680" s="13"/>
+      <c r="M680" s="14"/>
+      <c r="N680" s="14"/>
+      <c r="O680" s="14"/>
+      <c r="P680" s="12"/>
+      <c r="Q680" s="12"/>
+      <c r="R680" s="12"/>
+      <c r="S680" s="13"/>
     </row>
     <row r="681" spans="1:19" s="1" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="7" t="s">
@@ -70479,6 +70479,16 @@
   </sheetData>
   <autoFilter ref="A1:S1276" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
+    <mergeCell ref="A678:A680"/>
+    <mergeCell ref="B678:B680"/>
+    <mergeCell ref="C678:C680"/>
+    <mergeCell ref="D678:D680"/>
+    <mergeCell ref="E678:E680"/>
+    <mergeCell ref="F678:F680"/>
+    <mergeCell ref="G678:G680"/>
+    <mergeCell ref="H678:H680"/>
+    <mergeCell ref="I678:I680"/>
+    <mergeCell ref="J678:J680"/>
     <mergeCell ref="P678:P680"/>
     <mergeCell ref="Q678:Q680"/>
     <mergeCell ref="R678:R680"/>
@@ -70488,16 +70498,6 @@
     <mergeCell ref="M678:M680"/>
     <mergeCell ref="N678:N680"/>
     <mergeCell ref="O678:O680"/>
-    <mergeCell ref="F678:F680"/>
-    <mergeCell ref="G678:G680"/>
-    <mergeCell ref="H678:H680"/>
-    <mergeCell ref="I678:I680"/>
-    <mergeCell ref="J678:J680"/>
-    <mergeCell ref="A678:A680"/>
-    <mergeCell ref="B678:B680"/>
-    <mergeCell ref="C678:C680"/>
-    <mergeCell ref="D678:D680"/>
-    <mergeCell ref="E678:E680"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
